--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,6 +2285,106 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3926</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>teleact-beta-25mg-tablet-10s</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://cms.mkart.dev/medicine/edit/3926</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://medkart.in/order-medicine/teleact-beta-25mg-tablet-10s</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3927</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>teleact-beta-50mg-tablet-10s</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://cms.mkart.dev/medicine/edit/3927</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://medkart.in/order-medicine/teleact-beta-50mg-tablet-10s</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3921</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>telday-am-tablet-10s</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://cms.mkart.dev/medicine/edit/3921</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://medkart.in/order-medicine/telday-am-tablet-10s</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3965</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>telkonol-am-tablet-10s</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://cms.mkart.dev/medicine/edit/3965</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://medkart.in/order-medicine/telkonol-am-tablet-10s</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
